--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3983.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3983.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.276130597436166</v>
+        <v>1.442694664001465</v>
       </c>
       <c r="B1">
-        <v>2.742952753887894</v>
+        <v>1.402629613876343</v>
       </c>
       <c r="C1">
-        <v>5.193795088656889</v>
+        <v>3.742656469345093</v>
       </c>
       <c r="D1">
-        <v>3.074230924685744</v>
+        <v>5.707573890686035</v>
       </c>
       <c r="E1">
-        <v>1.326105036318905</v>
+        <v>1.635126233100891</v>
       </c>
     </row>
   </sheetData>
